--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,484 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Durchlauf</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::CER</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::WER</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Weitere Metriken::Precision</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Weitere Metriken::Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Weitere Metriken::F1 Score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Semantisch::Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Semantisch::BLEU Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.55844155844156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63.1578947368421</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.53880419233515</v>
+      </c>
+      <c r="O2" t="n">
+        <v>59.24326811515061</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>498</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.634538152610443</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" t="n">
+        <v>82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.85365853658537</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" t="n">
+        <v>78</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="N3" t="n">
+        <v>86.25290414176372</v>
+      </c>
+      <c r="O3" t="n">
+        <v>72.79684800452043</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.227848101265822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>156</v>
+      </c>
+      <c r="E4" t="n">
+        <v>247</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.1497975708502</v>
+      </c>
+      <c r="G4" t="n">
+        <v>183</v>
+      </c>
+      <c r="H4" t="n">
+        <v>222</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7408906882591093</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8511627906976744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>85.77449823335154</v>
+      </c>
+      <c r="O4" t="n">
+        <v>46.27100126008513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>856</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.65811965811966</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96</v>
+      </c>
+      <c r="H5" t="n">
+        <v>109</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>88.49480297383636</v>
+      </c>
+      <c r="O5" t="n">
+        <v>67.67901619494234</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>976</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.786885245901639</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76</v>
+      </c>
+      <c r="E6" t="n">
+        <v>126</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.84126984126984</v>
+      </c>
+      <c r="G6" t="n">
+        <v>109</v>
+      </c>
+      <c r="H6" t="n">
+        <v>122</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9727272727272728</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8492063492063492</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9067796610169492</v>
+      </c>
+      <c r="N6" t="n">
+        <v>84.21740536347053</v>
+      </c>
+      <c r="O6" t="n">
+        <v>65.6812930107492</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1259</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.26449563145353</v>
+      </c>
+      <c r="D7" t="n">
+        <v>167</v>
+      </c>
+      <c r="E7" t="n">
+        <v>178</v>
+      </c>
+      <c r="F7" t="n">
+        <v>39.8876404494382</v>
+      </c>
+      <c r="G7" t="n">
+        <v>110</v>
+      </c>
+      <c r="H7" t="n">
+        <v>152</v>
+      </c>
+      <c r="I7" t="n">
+        <v>35</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6235955056179775</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7681660899653979</v>
+      </c>
+      <c r="N7" t="n">
+        <v>80.01080489724112</v>
+      </c>
+      <c r="O7" t="n">
+        <v>40.05157485297764</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.51315789473684</v>
+      </c>
+      <c r="D8" t="n">
+        <v>140</v>
+      </c>
+      <c r="E8" t="n">
+        <v>164</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26.82926829268293</v>
+      </c>
+      <c r="G8" t="n">
+        <v>134</v>
+      </c>
+      <c r="H8" t="n">
+        <v>152</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="N8" t="n">
+        <v>78.7104073930529</v>
+      </c>
+      <c r="O8" t="n">
+        <v>58.72630463692049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.479674796747967</v>
+      </c>
+      <c r="D9" t="n">
+        <v>138</v>
+      </c>
+      <c r="E9" t="n">
+        <v>264</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.98484848484848</v>
+      </c>
+      <c r="G9" t="n">
+        <v>199</v>
+      </c>
+      <c r="H9" t="n">
+        <v>240</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21</v>
+      </c>
+      <c r="J9" t="n">
+        <v>89</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7234848484848485</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8232758620689655</v>
+      </c>
+      <c r="N9" t="n">
+        <v>87.79880212527415</v>
+      </c>
+      <c r="O9" t="n">
+        <v>49.53518886261475</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>41.55844155844156</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>63.1578947368421</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>19</v>
@@ -541,22 +541,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4210526315789473</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4210526315789473</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4210526315789473</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>68.53880419233515</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
-        <v>59.24326811515061</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>8.634538152610443</v>
+        <v>8.847736625514404</v>
       </c>
       <c r="D3" t="n">
         <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>15.85365853658537</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="N3" t="n">
-        <v>86.25290414176372</v>
+        <v>85.27969376304299</v>
       </c>
       <c r="O3" t="n">
-        <v>72.79684800452043</v>
+        <v>73.59703853414906</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>8.227848101265822</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="D4" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>29.1497975708502</v>
+        <v>28.74493927125506</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I4" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7408906882591093</v>
+        <v>0.7530364372469636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8511627906976744</v>
+        <v>0.859122401847575</v>
       </c>
       <c r="N4" t="n">
-        <v>85.77449823335154</v>
+        <v>85.71163480446974</v>
       </c>
       <c r="O4" t="n">
-        <v>46.27100126008513</v>
+        <v>47.33501773494449</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5</v>
+        <v>12.26533166458072</v>
       </c>
       <c r="D5" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>19.65811965811966</v>
+        <v>14.67889908256881</v>
       </c>
       <c r="G5" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.8899082568807339</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9371980676328503</v>
       </c>
       <c r="N5" t="n">
-        <v>88.49480297383636</v>
+        <v>88.29079085214858</v>
       </c>
       <c r="O5" t="n">
-        <v>67.67901619494234</v>
+        <v>72.20714084532021</v>
       </c>
     </row>
     <row r="6">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>7.786885245901639</v>
+        <v>7.991360691144708</v>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
@@ -734,22 +734,22 @@
         <v>122</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9727272727272728</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8492063492063492</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9067796610169492</v>
+        <v>0.9113924050632911</v>
       </c>
       <c r="N6" t="n">
-        <v>84.21740536347053</v>
+        <v>84.55730656294577</v>
       </c>
       <c r="O6" t="n">
         <v>65.6812930107492</v>
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>13.26449563145353</v>
+        <v>13.24717285945073</v>
       </c>
       <c r="D7" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>39.8876404494382</v>
+        <v>39.6551724137931</v>
       </c>
       <c r="G7" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6235955056179775</v>
+        <v>0.6264367816091954</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7681660899653979</v>
+        <v>0.7703180212014135</v>
       </c>
       <c r="N7" t="n">
-        <v>80.01080489724112</v>
+        <v>79.68342530474338</v>
       </c>
       <c r="O7" t="n">
-        <v>40.05157485297764</v>
+        <v>40.21026076164679</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>11.51315789473684</v>
+        <v>11.6079105760963</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
-        <v>26.82926829268293</v>
+        <v>26.62337662337662</v>
       </c>
       <c r="G8" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H8" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.96</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7926829268292683</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="N8" t="n">
-        <v>78.7104073930529</v>
+        <v>78.22229181841294</v>
       </c>
       <c r="O8" t="n">
-        <v>58.72630463692049</v>
+        <v>58.11066372653882</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1845</v>
+        <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>7.479674796747967</v>
+        <v>5.228031145717464</v>
       </c>
       <c r="D9" t="n">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>35.98484848484848</v>
+        <v>30.11583011583012</v>
       </c>
       <c r="G9" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H9" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="K9" t="n">
-        <v>0.955</v>
+        <v>0.9395348837209302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7234848484848485</v>
+        <v>0.7799227799227799</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8232758620689655</v>
+        <v>0.8523206751054853</v>
       </c>
       <c r="N9" t="n">
-        <v>87.79880212527415</v>
+        <v>88.07307924146809</v>
       </c>
       <c r="O9" t="n">
-        <v>49.53518886261475</v>
+        <v>54.5524268767407</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,13 +550,13 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -538,24 +568,42 @@
         <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>100</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>8.847736625514404</v>
+        <v>469</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.995884773662551</v>
+      </c>
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>69</v>
+      </c>
+      <c r="I3" t="n">
+        <v>73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
         <v>13.92405063291139</v>
       </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>76</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
+        <v>8.860759493670885</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>87.34177215189874</v>
+      </c>
+      <c r="P3" t="n">
+        <v>92.40506329113924</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.8734177215189873</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9324324324324325</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>85.27969376304299</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>73.59703853414906</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>8.054054054054054</v>
+        <v>1792</v>
       </c>
       <c r="D4" t="n">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
+        <v>69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.864864864864866</v>
+      </c>
+      <c r="G4" t="n">
         <v>247</v>
       </c>
-      <c r="F4" t="n">
-        <v>28.74493927125506</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>184</v>
       </c>
-      <c r="H4" t="n">
-        <v>223</v>
-      </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="J4" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
+        <v>44</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32.79352226720648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24.69635627530364</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O4" t="n">
+        <v>74.49392712550608</v>
+      </c>
+      <c r="P4" t="n">
+        <v>82.5910931174089</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.7530364372469636</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.859122401847575</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>85.71163480446974</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>47.33501773494449</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>12.26533166458072</v>
+        <v>713</v>
       </c>
       <c r="D5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.01501877346683</v>
+      </c>
+      <c r="G5" t="n">
+        <v>109</v>
+      </c>
+      <c r="H5" t="n">
         <v>98</v>
       </c>
-      <c r="E5" t="n">
-        <v>109</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.67889908256881</v>
-      </c>
-      <c r="G5" t="n">
-        <v>98</v>
-      </c>
-      <c r="H5" t="n">
-        <v>106</v>
-      </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.76146788990826</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.09174311926606</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>89.90825688073394</v>
+      </c>
+      <c r="P5" t="n">
+        <v>93.57798165137615</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9897959183673469</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.8899082568807339</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9371980676328503</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>88.29079085214858</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>72.20714084532021</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>7.991360691144708</v>
+        <v>882</v>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.939524838012959</v>
+      </c>
+      <c r="G6" t="n">
         <v>126</v>
       </c>
-      <c r="F6" t="n">
-        <v>19.84126984126984</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>109</v>
       </c>
-      <c r="H6" t="n">
-        <v>122</v>
-      </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15.87301587301587</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.6984126984127</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>86.50793650793651</v>
+      </c>
+      <c r="P6" t="n">
+        <v>89.68253968253968</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.972972972972973</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9113924050632911</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>84.55730656294577</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>65.6812930107492</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>13.24717285945073</v>
+        <v>1187</v>
       </c>
       <c r="D7" t="n">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.027463651050081</v>
+      </c>
+      <c r="G7" t="n">
         <v>174</v>
       </c>
-      <c r="F7" t="n">
-        <v>39.6551724137931</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>108</v>
       </c>
-      <c r="H7" t="n">
-        <v>148</v>
-      </c>
       <c r="I7" t="n">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="J7" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
+        <v>47</v>
+      </c>
+      <c r="L7" t="n">
+        <v>45.40229885057471</v>
+      </c>
+      <c r="M7" t="n">
+        <v>37.35632183908046</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>62.06896551724138</v>
+      </c>
+      <c r="P7" t="n">
+        <v>70.11494252873564</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.6264367816091954</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.7703180212014135</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>79.68342530474338</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>40.21026076164679</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6079105760963</v>
+        <v>1102</v>
       </c>
       <c r="D8" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.082545141874462</v>
+      </c>
+      <c r="G8" t="n">
+        <v>154</v>
+      </c>
+      <c r="H8" t="n">
+        <v>125</v>
+      </c>
+      <c r="I8" t="n">
         <v>135</v>
       </c>
-      <c r="E8" t="n">
-        <v>154</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26.62337662337662</v>
-      </c>
-      <c r="G8" t="n">
-        <v>125</v>
-      </c>
-      <c r="H8" t="n">
-        <v>144</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>27.92207792207792</v>
+      </c>
+      <c r="M8" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>81.16883116883116</v>
+      </c>
+      <c r="P8" t="n">
+        <v>87.66233766233766</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.96</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.7792207792207793</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.8602150537634409</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>78.22229181841294</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>58.11066372653882</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>5.228031145717464</v>
+        <v>1768</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.282536151279199</v>
+      </c>
+      <c r="G9" t="n">
         <v>259</v>
       </c>
-      <c r="F9" t="n">
-        <v>30.11583011583012</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>211</v>
       </c>
-      <c r="H9" t="n">
-        <v>236</v>
-      </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="J9" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
+        <v>62</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29.72972972972973</v>
+      </c>
+      <c r="M9" t="n">
+        <v>27.02702702702703</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>81.46718146718148</v>
+      </c>
+      <c r="P9" t="n">
+        <v>84.16988416988417</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9395348837209302</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.7799227799227799</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.8523206751054853</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>88.07307924146809</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>54.5524268767407</v>
       </c>
     </row>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,121 +436,124 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A2" t="n">
+        <v>151</v>
       </c>
       <c r="B2" t="n">
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -559,16 +562,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -583,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -601,479 +604,505 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A3" t="n">
+        <v>486</v>
       </c>
       <c r="B3" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C3" t="n">
-        <v>469</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>6.995884773662551</v>
+        <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H3" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>13.92405063291139</v>
+        <v>0.1899</v>
       </c>
       <c r="M3" t="n">
-        <v>8.860759493670885</v>
+        <v>0.0886</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0.8902</v>
       </c>
       <c r="O3" t="n">
-        <v>87.34177215189874</v>
+        <v>0.9359</v>
       </c>
       <c r="P3" t="n">
-        <v>92.40506329113924</v>
+        <v>0.9241</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8734177215189873</v>
+        <v>0.9068000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9324324324324325</v>
+        <v>0.9542</v>
       </c>
       <c r="T3" t="n">
-        <v>85.27969376304299</v>
+        <v>0.8528</v>
       </c>
       <c r="U3" t="n">
-        <v>73.59703853414906</v>
+        <v>0.736</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06859999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>247</v>
+      </c>
+      <c r="G4" t="n">
+        <v>204</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4332</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2713</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7612</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8226</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8259</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8987000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7922</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8589</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.4734</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1792</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58</v>
-      </c>
-      <c r="E4" t="n">
-        <v>69</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.864864864864866</v>
-      </c>
-      <c r="G4" t="n">
-        <v>247</v>
-      </c>
-      <c r="H4" t="n">
-        <v>184</v>
-      </c>
-      <c r="I4" t="n">
-        <v>204</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32.79352226720648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24.69635627530364</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O4" t="n">
-        <v>74.49392712550608</v>
-      </c>
-      <c r="P4" t="n">
-        <v>82.5910931174089</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.7530364372469636</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.859122401847575</v>
-      </c>
-      <c r="T4" t="n">
-        <v>85.71163480446974</v>
-      </c>
-      <c r="U4" t="n">
-        <v>47.33501773494449</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>799</v>
+      </c>
+      <c r="B5" t="n">
+        <v>713</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1202</v>
+      </c>
+      <c r="F5" t="n">
+        <v>109</v>
+      </c>
+      <c r="G5" t="n">
+        <v>102</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1743</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8947000000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9273</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9358</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9147999999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9488</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8829</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.7221</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>799</v>
-      </c>
-      <c r="C5" t="n">
-        <v>713</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.01501877346683</v>
-      </c>
-      <c r="G5" t="n">
-        <v>109</v>
-      </c>
-      <c r="H5" t="n">
-        <v>98</v>
-      </c>
-      <c r="I5" t="n">
-        <v>102</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13.76146788990826</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10.09174311926606</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89.90825688073394</v>
-      </c>
-      <c r="P5" t="n">
-        <v>93.57798165137615</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.9897959183673469</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.8899082568807339</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9371980676328503</v>
-      </c>
-      <c r="T5" t="n">
-        <v>88.29079085214858</v>
-      </c>
-      <c r="U5" t="n">
-        <v>72.20714084532021</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>926</v>
+      </c>
+      <c r="B6" t="n">
+        <v>882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="F6" t="n">
+        <v>126</v>
+      </c>
+      <c r="G6" t="n">
+        <v>120</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1905</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8696</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8955</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9524</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9091</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8456</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6568000000000001</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>926</v>
-      </c>
-      <c r="C6" t="n">
-        <v>882</v>
-      </c>
-      <c r="D6" t="n">
-        <v>44</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.939524838012959</v>
-      </c>
-      <c r="G6" t="n">
-        <v>126</v>
-      </c>
-      <c r="H6" t="n">
-        <v>109</v>
-      </c>
-      <c r="I6" t="n">
-        <v>113</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14</v>
-      </c>
-      <c r="L6" t="n">
-        <v>15.87301587301587</v>
-      </c>
-      <c r="M6" t="n">
-        <v>12.6984126984127</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>86.50793650793651</v>
-      </c>
-      <c r="P6" t="n">
-        <v>89.68253968253968</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9113924050632911</v>
-      </c>
-      <c r="T6" t="n">
-        <v>84.55730656294577</v>
-      </c>
-      <c r="U6" t="n">
-        <v>65.6812930107492</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="F7" t="n">
+        <v>174</v>
+      </c>
+      <c r="G7" t="n">
+        <v>140</v>
+      </c>
+      <c r="H7" t="n">
+        <v>34</v>
+      </c>
+      <c r="I7" t="n">
+        <v>61</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3851</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6965</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7487</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8046</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7467</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8069</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.7968</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.4021</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1238</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.027463651050081</v>
-      </c>
-      <c r="G7" t="n">
-        <v>174</v>
-      </c>
-      <c r="H7" t="n">
-        <v>108</v>
-      </c>
-      <c r="I7" t="n">
-        <v>122</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>47</v>
-      </c>
-      <c r="L7" t="n">
-        <v>45.40229885057471</v>
-      </c>
-      <c r="M7" t="n">
-        <v>37.35632183908046</v>
-      </c>
-      <c r="N7" t="n">
-        <v>14</v>
-      </c>
-      <c r="O7" t="n">
-        <v>62.06896551724138</v>
-      </c>
-      <c r="P7" t="n">
-        <v>70.11494252873564</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.6264367816091954</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.7703180212014135</v>
-      </c>
-      <c r="T7" t="n">
-        <v>79.68342530474338</v>
-      </c>
-      <c r="U7" t="n">
-        <v>40.21026076164679</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="F8" t="n">
+        <v>154</v>
+      </c>
+      <c r="G8" t="n">
+        <v>136</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3442</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.7953</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8447</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8831</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8369</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8918</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.7822</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5810999999999999</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1163</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1102</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.082545141874462</v>
-      </c>
-      <c r="G8" t="n">
-        <v>154</v>
-      </c>
-      <c r="H8" t="n">
-        <v>125</v>
-      </c>
-      <c r="I8" t="n">
-        <v>135</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>27.92207792207792</v>
-      </c>
-      <c r="M8" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>81.16883116883116</v>
-      </c>
-      <c r="P8" t="n">
-        <v>87.66233766233766</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.7792207792207793</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.8602150537634409</v>
-      </c>
-      <c r="T8" t="n">
-        <v>78.22229181841294</v>
-      </c>
-      <c r="U8" t="n">
-        <v>58.11066372653882</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1798</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="F9" t="n">
+        <v>259</v>
+      </c>
+      <c r="G9" t="n">
+        <v>241</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>69</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7774</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7954</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9305</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9563</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8471</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8685</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8807</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1798</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1768</v>
-      </c>
-      <c r="D9" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" t="n">
-        <v>47</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.282536151279199</v>
-      </c>
-      <c r="G9" t="n">
-        <v>259</v>
-      </c>
-      <c r="H9" t="n">
-        <v>211</v>
-      </c>
-      <c r="I9" t="n">
-        <v>218</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>62</v>
-      </c>
-      <c r="L9" t="n">
-        <v>29.72972972972973</v>
-      </c>
-      <c r="M9" t="n">
-        <v>27.02702702702703</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>81.46718146718148</v>
-      </c>
-      <c r="P9" t="n">
-        <v>84.16988416988417</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9395348837209302</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.7799227799227799</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.8523206751054853</v>
-      </c>
-      <c r="T9" t="n">
-        <v>88.07307924146809</v>
-      </c>
-      <c r="U9" t="n">
-        <v>54.5524268767407</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
@@ -690,64 +690,64 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0589</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I4" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4332</v>
+        <v>0.4089</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2713</v>
+        <v>0.247</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7612</v>
+        <v>0.7744</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8226</v>
+        <v>0.8443000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8259</v>
+        <v>0.834</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8987000000000001</v>
+        <v>0.8996</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7922</v>
+        <v>0.8031</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8589</v>
+        <v>0.871</v>
       </c>
       <c r="T4" t="n">
         <v>0.8571</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4734</v>
+        <v>0.4903</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -760,64 +760,64 @@
         <v>799</v>
       </c>
       <c r="B5" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1202</v>
+        <v>0.1176</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1743</v>
+        <v>0.1468</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1009</v>
+        <v>0.0917</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.9115</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9273</v>
+        <v>0.9364</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9358</v>
+        <v>0.945</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9714</v>
+        <v>0.9717</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9147999999999999</v>
+        <v>0.9278999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9488</v>
+        <v>0.9537</v>
       </c>
       <c r="T5" t="n">
         <v>0.8829</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7221</v>
+        <v>0.7468</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -900,64 +900,64 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0703</v>
+        <v>0.0606</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J7" t="n">
         <v>14</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>0.546</v>
+        <v>0.523</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3851</v>
+        <v>0.3563</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6965</v>
+        <v>0.7085</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7487</v>
+        <v>0.7663</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8046</v>
+        <v>0.8103</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.875</v>
+        <v>0.8812</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7467</v>
+        <v>0.756</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8069</v>
+        <v>0.8198</v>
       </c>
       <c r="T7" t="n">
         <v>0.7968</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4021</v>
+        <v>0.4049</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,64 +970,64 @@
         <v>1163</v>
       </c>
       <c r="B8" t="n">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0808</v>
+        <v>0.0722</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3442</v>
+        <v>0.3247</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2143</v>
+        <v>0.2078</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7953</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8447</v>
+        <v>0.8509</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8831</v>
+        <v>0.8895999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9444</v>
+        <v>0.9448</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8369</v>
+        <v>0.8457</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8918</v>
+        <v>0.8954</v>
       </c>
       <c r="T8" t="n">
         <v>0.7822</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5810999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,16 +1040,16 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0428</v>
+        <v>0.0384</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
@@ -1061,25 +1061,25 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3359</v>
+        <v>0.3205</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2819</v>
+        <v>0.2587</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7774</v>
+        <v>0.7876</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7954</v>
+        <v>0.8114</v>
       </c>
       <c r="P9" t="n">
         <v>0.9305</v>
@@ -1088,16 +1088,16 @@
         <v>0.9563</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8471</v>
+        <v>0.8531</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8685</v>
+        <v>0.878</v>
       </c>
       <c r="T9" t="n">
         <v>0.8807</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5455</v>
+        <v>0.5531</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen7b/results.xlsx
@@ -547,10 +547,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0336</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="C4" t="n">
         <v>49</v>
@@ -699,7 +699,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0589</v>
+        <v>0.0591</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
         <v>714</v>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1176</v>
+        <v>0.018</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0594</v>
+        <v>0.0315</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0606</v>
+        <v>0.0585</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0722</v>
+        <v>0.0473</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>1772</v>
+        <v>1758</v>
       </c>
       <c r="C9" t="n">
         <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0384</v>
+        <v>0.037</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
